--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Other\sigfox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52928E7D-4C3D-44FF-B2BC-68FABEB5C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6523F4-8AD4-4E30-A0D1-C4015C094B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>baseline_KNN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>R2</t>
   </si>
@@ -51,23 +48,48 @@
     <t>Linear regression OLS</t>
   </si>
   <si>
-    <t>Linear regression Ridge  Best Alpha: 1e-05</t>
-  </si>
-  <si>
-    <t>Linear regression Lasso  Best Alpha: 1e-05</t>
-  </si>
-  <si>
-    <t>Linear regression SGD  Best Alpha: 1e-05</t>
+    <t>Linear regression Elastic  Best Alpha: 1e-05,  Best L1_ratio: 0.001</t>
+  </si>
+  <si>
+    <t>Linear regression Ridge  Best Alpha: 0.17012542798525893</t>
+  </si>
+  <si>
+    <t>Linear regression Lasso  Best Alpha: 0.0005484416576121015</t>
+  </si>
+  <si>
+    <t>Random forest, n = 100</t>
+  </si>
+  <si>
+    <t>Linear regression Polynomial, degree = 2 with PCA</t>
+  </si>
+  <si>
+    <t>KNN, neighbours = 1</t>
+  </si>
+  <si>
+    <t>Linear regression OLS with PCA</t>
+  </si>
+  <si>
+    <t>Linear regression Ridge  Best alpha: 0.003072112998861759 with PCA</t>
+  </si>
+  <si>
+    <t>Linear regression Lasso  Best alpha: 1e-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,12 +115,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -381,143 +409,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:A9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="5" width="11.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="2"/>
-    <col min="8" max="8" width="11.36328125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="11.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>198</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>198</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15.7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>99.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1725</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>1094</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>97.1</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
-        <v>2100</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1323</v>
-      </c>
-      <c r="D5" s="2">
-        <v>96.5</v>
+      <c r="B5" s="1">
+        <v>1721</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1092</v>
+      </c>
+      <c r="D5" s="1">
+        <v>97.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
-        <v>2122</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1361</v>
-      </c>
-      <c r="D6" s="2">
-        <v>96.4</v>
+      <c r="B6" s="1">
+        <v>1719</v>
+      </c>
+      <c r="C6" s="1">
+        <v>751.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>96.1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>921</v>
+      </c>
+      <c r="C8" s="1">
+        <v>413</v>
+      </c>
+      <c r="D8" s="1">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="1">
+        <v>189</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2524</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1740</v>
+      </c>
+      <c r="D14" s="4">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2514</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1735</v>
+      </c>
+      <c r="D15" s="1">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2524</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1740</v>
+      </c>
+      <c r="D16" s="1">
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>997</v>
+      </c>
+      <c r="C18" s="1">
+        <v>506</v>
+      </c>
+      <c r="D18" s="1">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B19" s="1">
+        <v>186</v>
+      </c>
+      <c r="C19" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>99.7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Other\sigfox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6523F4-8AD4-4E30-A0D1-C4015C094B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD7C4A9-5917-4428-A241-DDAC3EB32CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="3350" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>R2</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Linear regression OLS</t>
   </si>
   <si>
-    <t>Linear regression Elastic  Best Alpha: 1e-05,  Best L1_ratio: 0.001</t>
-  </si>
-  <si>
     <t>Linear regression Ridge  Best Alpha: 0.17012542798525893</t>
   </si>
   <si>
@@ -73,6 +70,21 @@
   </si>
   <si>
     <t>Linear regression Lasso  Best alpha: 1e-05</t>
+  </si>
+  <si>
+    <t>Linear regression Ridge  Best Alpha: 1e-05</t>
+  </si>
+  <si>
+    <t>Linear regression Lasso  Best alpha: 6.7475440531107e-05</t>
+  </si>
+  <si>
+    <t>Linear regression Elastic  Best Alpha: Best alpha: 0.0005214008287999684 Best L1_ratio: 1.0</t>
+  </si>
+  <si>
+    <t>Linear regression Elastic  Best alpha: 1e-05,  Best L1_ratio: 1</t>
+  </si>
+  <si>
+    <t>Linear regression Elastic  Best Alpha: 6.428073117284319e-05,  Best L1_ratio: 0.001</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,9 +136,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="1"/>
@@ -455,7 +464,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>198</v>
@@ -480,13 +489,10 @@
       <c r="D4" s="1">
         <v>97.1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1721</v>
@@ -500,7 +506,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>1719</v>
@@ -514,15 +520,21 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1715</v>
+      </c>
+      <c r="C7" s="2">
+        <v>754</v>
+      </c>
+      <c r="D7" s="2">
+        <v>96.1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>921</v>
@@ -536,13 +548,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D9" s="1">
         <v>99.7</v>
@@ -554,11 +566,6 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -570,22 +577,13 @@
       <c r="D12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="1">
         <v>15.4</v>
@@ -596,21 +594,21 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
         <v>2524</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>1740</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>95.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>2514</v>
@@ -624,26 +622,35 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2524</v>
+        <v>2641</v>
       </c>
       <c r="C16" s="1">
-        <v>1740</v>
+        <v>1673</v>
       </c>
       <c r="D16" s="1">
-        <v>95.6</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2641</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1673</v>
+      </c>
+      <c r="D17" s="1">
+        <v>94.4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>997</v>
@@ -657,15 +664,131 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1">
         <v>13.2</v>
       </c>
       <c r="D19" s="1">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2152</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1488</v>
+      </c>
+      <c r="D24" s="1">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2209</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1538</v>
+      </c>
+      <c r="D25" s="1">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2179</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1331</v>
+      </c>
+      <c r="D26" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2176</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1332</v>
+      </c>
+      <c r="D27" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1">
+        <v>922</v>
+      </c>
+      <c r="C28" s="1">
+        <v>441</v>
+      </c>
+      <c r="D28" s="1">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="D29" s="1">
         <v>99.7</v>
       </c>
     </row>
@@ -675,7 +798,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
